--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H2">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I2">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J2">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N2">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O2">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P2">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q2">
-        <v>24.6382847911675</v>
+        <v>113.4509661804105</v>
       </c>
       <c r="R2">
-        <v>98.55313916466999</v>
+        <v>453.803864721642</v>
       </c>
       <c r="S2">
-        <v>0.01156500216065253</v>
+        <v>0.0702876135751648</v>
       </c>
       <c r="T2">
-        <v>0.007056326346420507</v>
+        <v>0.04901534093967486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H3">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I3">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J3">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
         <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P3">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q3">
-        <v>10.479777083525</v>
+        <v>26.17248966689749</v>
       </c>
       <c r="R3">
-        <v>62.87866250115</v>
+        <v>157.034938001385</v>
       </c>
       <c r="S3">
-        <v>0.004919118584812025</v>
+        <v>0.01621495084565025</v>
       </c>
       <c r="T3">
-        <v>0.004502062203144979</v>
+        <v>0.01696133863976657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H4">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I4">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J4">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N4">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O4">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P4">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q4">
-        <v>8.508174889349998</v>
+        <v>15.87967858731617</v>
       </c>
       <c r="R4">
-        <v>51.0490493361</v>
+        <v>95.27807152389701</v>
       </c>
       <c r="S4">
-        <v>0.003993665217061555</v>
+        <v>0.009838124344117058</v>
       </c>
       <c r="T4">
-        <v>0.003655071313235007</v>
+        <v>0.01029098146328726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H5">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I5">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J5">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N5">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O5">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P5">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q5">
-        <v>1.9572992844175</v>
+        <v>6.179868832151251</v>
       </c>
       <c r="R5">
-        <v>7.829197137669999</v>
+        <v>24.719475328605</v>
       </c>
       <c r="S5">
-        <v>0.0009187397030757113</v>
+        <v>0.003828686938890558</v>
       </c>
       <c r="T5">
-        <v>0.0005605642854415091</v>
+        <v>0.00266994974100685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H6">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I6">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J6">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N6">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O6">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P6">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q6">
-        <v>22.29871696389833</v>
+        <v>4.741032634213667</v>
       </c>
       <c r="R6">
-        <v>133.79230178339</v>
+        <v>28.446195805282</v>
       </c>
       <c r="S6">
-        <v>0.01046682884190509</v>
+        <v>0.00293726779912074</v>
       </c>
       <c r="T6">
-        <v>0.009579422350463487</v>
+        <v>0.003072472700707152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H7">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I7">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J7">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N7">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O7">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P7">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q7">
-        <v>10.28571563621166</v>
+        <v>10.985820745188</v>
       </c>
       <c r="R7">
-        <v>61.71429381726999</v>
+        <v>65.914924471128</v>
       </c>
       <c r="S7">
-        <v>0.004828027785411791</v>
+        <v>0.006806174943595437</v>
       </c>
       <c r="T7">
-        <v>0.004418694331855955</v>
+        <v>0.007119468887615177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J8">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N8">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O8">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P8">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q8">
-        <v>248.0576575685071</v>
+        <v>457.359152073597</v>
       </c>
       <c r="R8">
-        <v>1488.345945411043</v>
+        <v>2744.154912441582</v>
       </c>
       <c r="S8">
-        <v>0.11643616307149</v>
+        <v>0.2833531033565121</v>
       </c>
       <c r="T8">
-        <v>0.1065643854291046</v>
+        <v>0.2963960844782844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J9">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N9">
         <v>28.703985</v>
       </c>
       <c r="O9">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P9">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q9">
         <v>105.5101431456483</v>
       </c>
       <c r="R9">
-        <v>949.591288310835</v>
+        <v>949.5912883108349</v>
       </c>
       <c r="S9">
-        <v>0.04952556737584329</v>
+        <v>0.06536794193439117</v>
       </c>
       <c r="T9">
-        <v>0.0679899806625462</v>
+        <v>0.1025653247321958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J10">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N10">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O10">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P10">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q10">
-        <v>85.66009976440999</v>
+        <v>64.0163462543541</v>
       </c>
       <c r="R10">
-        <v>770.9408978796901</v>
+        <v>576.147116289187</v>
       </c>
       <c r="S10">
-        <v>0.04020812516998957</v>
+        <v>0.03966080113292966</v>
       </c>
       <c r="T10">
-        <v>0.05519875485804628</v>
+        <v>0.06222963163534783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J11">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N11">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O11">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P11">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q11">
-        <v>19.70604203045717</v>
+        <v>24.9131379322425</v>
       </c>
       <c r="R11">
-        <v>118.236252182743</v>
+        <v>149.478827593455</v>
       </c>
       <c r="S11">
-        <v>0.009249849191687485</v>
+        <v>0.01543472982981611</v>
       </c>
       <c r="T11">
-        <v>0.008465621576853832</v>
+        <v>0.01614520339585521</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J12">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N12">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O12">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P12">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q12">
-        <v>224.5029450601479</v>
+        <v>19.11270338666911</v>
       </c>
       <c r="R12">
-        <v>2020.526505541331</v>
+        <v>172.014330480022</v>
       </c>
       <c r="S12">
-        <v>0.1053797805610329</v>
+        <v>0.01184111828437565</v>
       </c>
       <c r="T12">
-        <v>0.1446680900835615</v>
+        <v>0.01857926234312674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J13">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N13">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O13">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P13">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q13">
-        <v>103.5563371703981</v>
+        <v>44.287552852232</v>
       </c>
       <c r="R13">
-        <v>932.0070345335829</v>
+        <v>398.587975670088</v>
       </c>
       <c r="S13">
-        <v>0.04860846740249753</v>
+        <v>0.02743798934349549</v>
       </c>
       <c r="T13">
-        <v>0.06673096208371386</v>
+        <v>0.04305147452613237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H14">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I14">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J14">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N14">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O14">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P14">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q14">
-        <v>6.613818918379332</v>
+        <v>13.857194379618</v>
       </c>
       <c r="R14">
-        <v>39.68291351027599</v>
+        <v>83.143166277708</v>
       </c>
       <c r="S14">
-        <v>0.003104470572100936</v>
+        <v>0.008585110877255038</v>
       </c>
       <c r="T14">
-        <v>0.002841265032029226</v>
+        <v>0.008980290735085897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H15">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I15">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J15">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N15">
         <v>28.703985</v>
       </c>
       <c r="O15">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P15">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q15">
-        <v>2.813156375246666</v>
+        <v>3.196775566776666</v>
       </c>
       <c r="R15">
-        <v>25.31840737722</v>
+        <v>28.77098010099</v>
       </c>
       <c r="S15">
-        <v>0.001320471771218596</v>
+        <v>0.00198053602617026</v>
       </c>
       <c r="T15">
-        <v>0.00181277782259959</v>
+        <v>0.003107552642116959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H16">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I16">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J16">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N16">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O16">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P16">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q16">
-        <v>2.28390606412</v>
+        <v>1.939585005564223</v>
       </c>
       <c r="R16">
-        <v>20.55515457708</v>
+        <v>17.456265050078</v>
       </c>
       <c r="S16">
-        <v>0.001072046158657281</v>
+        <v>0.001201653947578471</v>
       </c>
       <c r="T16">
-        <v>0.001471732712183277</v>
+        <v>0.001885450630720684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H17">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I17">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J17">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N17">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O17">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P17">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q17">
-        <v>0.5254108857793333</v>
+        <v>0.7548251595450002</v>
       </c>
       <c r="R17">
-        <v>3.152465314676</v>
+        <v>4.528950957270001</v>
       </c>
       <c r="S17">
-        <v>0.0002466234188285157</v>
+        <v>0.0004676457232329154</v>
       </c>
       <c r="T17">
-        <v>0.0002257140081449537</v>
+        <v>0.0004891718482957848</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H18">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I18">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J18">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N18">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O18">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P18">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q18">
-        <v>5.985793141099109</v>
+        <v>0.5790819856742223</v>
       </c>
       <c r="R18">
-        <v>53.87213826989199</v>
+        <v>5.211737871068001</v>
       </c>
       <c r="S18">
-        <v>0.002809680592491845</v>
+        <v>0.0003587654844004043</v>
       </c>
       <c r="T18">
-        <v>0.003857202234590234</v>
+        <v>0.000562919641055297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H19">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I19">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J19">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N19">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O19">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P19">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q19">
-        <v>2.761063168172888</v>
+        <v>1.341836553808</v>
       </c>
       <c r="R19">
-        <v>24.849568513556</v>
+        <v>12.076528984272</v>
       </c>
       <c r="S19">
-        <v>0.00129601966111962</v>
+        <v>0.0008313238075479058</v>
       </c>
       <c r="T19">
-        <v>0.00177920933301175</v>
+        <v>0.00130438551001553</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H20">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I20">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J20">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N20">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O20">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P20">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q20">
-        <v>334.7399915871854</v>
+        <v>437.3663099296455</v>
       </c>
       <c r="R20">
-        <v>1338.959966348742</v>
+        <v>1749.465239718582</v>
       </c>
       <c r="S20">
-        <v>0.1571241163406963</v>
+        <v>0.2709667023394534</v>
       </c>
       <c r="T20">
-        <v>0.09586846819320775</v>
+        <v>0.188959684685618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H21">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I21">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J21">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N21">
         <v>28.703985</v>
       </c>
       <c r="O21">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P21">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q21">
-        <v>142.380061051665</v>
+        <v>100.8979086972225</v>
       </c>
       <c r="R21">
-        <v>854.2803663099899</v>
+        <v>605.3874521833349</v>
       </c>
       <c r="S21">
-        <v>0.06683199450176981</v>
+        <v>0.06251046999260533</v>
       </c>
       <c r="T21">
-        <v>0.06116579448525503</v>
+        <v>0.06538787938169832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H22">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I22">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J22">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N22">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O22">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P22">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q22">
-        <v>115.59353319531</v>
+        <v>61.2179575056145</v>
       </c>
       <c r="R22">
-        <v>693.5611991718599</v>
+        <v>367.307745033687</v>
       </c>
       <c r="S22">
-        <v>0.05425862524490582</v>
+        <v>0.03792708238529276</v>
       </c>
       <c r="T22">
-        <v>0.04965843000083582</v>
+        <v>0.03967289781380025</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H23">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I23">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J23">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N23">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O23">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P23">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q23">
-        <v>26.5922060546355</v>
+        <v>23.82409350898875</v>
       </c>
       <c r="R23">
-        <v>106.368824218542</v>
+        <v>95.296374035955</v>
       </c>
       <c r="S23">
-        <v>0.01248215624931105</v>
+        <v>0.01476002130890213</v>
       </c>
       <c r="T23">
-        <v>0.007615923177413513</v>
+        <v>0.01029295831703029</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H24">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I24">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J24">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N24">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O24">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P24">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q24">
-        <v>302.9542191011689</v>
+        <v>18.277217182837</v>
       </c>
       <c r="R24">
-        <v>1817.725314607014</v>
+        <v>109.663303097022</v>
       </c>
       <c r="S24">
-        <v>0.14220414400518</v>
+        <v>0.01132349967415642</v>
       </c>
       <c r="T24">
-        <v>0.1301476861795905</v>
+        <v>0.01184472986621326</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H25">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I25">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J25">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N25">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O25">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P25">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q25">
-        <v>139.743508718917</v>
+        <v>42.351581856348</v>
       </c>
       <c r="R25">
-        <v>838.4610523135018</v>
+        <v>254.109491138088</v>
       </c>
       <c r="S25">
-        <v>0.06559441917201977</v>
+        <v>0.02623857442590868</v>
       </c>
       <c r="T25">
-        <v>0.06003314419038006</v>
+        <v>0.0274463580246955</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H26">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I26">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J26">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N26">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O26">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P26">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q26">
-        <v>40.77470665994117</v>
+        <v>2.826575449785</v>
       </c>
       <c r="R26">
-        <v>244.648239959647</v>
+        <v>16.95945269871</v>
       </c>
       <c r="S26">
-        <v>0.01913930188806165</v>
+        <v>0.001751181586586087</v>
       </c>
       <c r="T26">
-        <v>0.01751661931689666</v>
+        <v>0.001831789944511497</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H27">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I27">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J27">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N27">
         <v>28.703985</v>
       </c>
       <c r="O27">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P27">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q27">
-        <v>17.34332726746834</v>
+        <v>0.6520748059083332</v>
       </c>
       <c r="R27">
-        <v>156.089945407215</v>
+        <v>5.868673253174999</v>
       </c>
       <c r="S27">
-        <v>0.008140810897399766</v>
+        <v>0.0004039875862044393</v>
       </c>
       <c r="T27">
-        <v>0.0111759158919122</v>
+        <v>0.0006338752107022438</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H28">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I28">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J28">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N28">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O28">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P28">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q28">
-        <v>14.08045804589</v>
+        <v>0.3956344415261111</v>
       </c>
       <c r="R28">
-        <v>126.72412241301</v>
+        <v>3.560709973735</v>
       </c>
       <c r="S28">
-        <v>0.006609247725802381</v>
+        <v>0.0002451120662894368</v>
       </c>
       <c r="T28">
-        <v>0.009073346331625542</v>
+        <v>0.0003845921705778686</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H29">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I29">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J29">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N29">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O29">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P29">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q29">
-        <v>3.239198866491167</v>
+        <v>0.1539684157125</v>
       </c>
       <c r="R29">
-        <v>19.435193198947</v>
+        <v>0.9238104942750001</v>
       </c>
       <c r="S29">
-        <v>0.001520452507440087</v>
+        <v>9.538986639541879E-05</v>
       </c>
       <c r="T29">
-        <v>0.00139154436865128</v>
+        <v>9.97807419915065E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H30">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I30">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J30">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N30">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O30">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P30">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q30">
-        <v>36.90287902759989</v>
+        <v>0.1181205141011111</v>
       </c>
       <c r="R30">
-        <v>332.125911248399</v>
+        <v>1.06308462691</v>
       </c>
       <c r="S30">
-        <v>0.01732189879717144</v>
+        <v>7.318059360760451E-05</v>
       </c>
       <c r="T30">
-        <v>0.02377995097604301</v>
+        <v>0.0001148237366107113</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H31">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I31">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J31">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N31">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O31">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P31">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q31">
-        <v>17.02216860503411</v>
+        <v>0.27370636196</v>
       </c>
       <c r="R31">
-        <v>153.199517445307</v>
+        <v>2.46335725764</v>
       </c>
       <c r="S31">
-        <v>0.007990061741910841</v>
+        <v>0.0001695725267946683</v>
       </c>
       <c r="T31">
-        <v>0.01096896354972487</v>
+        <v>0.0002660671387483864</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H32">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I32">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J32">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N32">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O32">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P32">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q32">
-        <v>16.67612866395933</v>
+        <v>7.330294268721</v>
       </c>
       <c r="R32">
-        <v>100.056771983756</v>
+        <v>43.981765612326</v>
       </c>
       <c r="S32">
-        <v>0.007827633525006858</v>
+        <v>0.004541423562076909</v>
       </c>
       <c r="T32">
-        <v>0.007163985259841123</v>
+        <v>0.004750469099551097</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H33">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I33">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J33">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N33">
         <v>28.703985</v>
       </c>
       <c r="O33">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P33">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q33">
-        <v>7.093111898646667</v>
+        <v>1.691057004295</v>
       </c>
       <c r="R33">
-        <v>63.83800708782</v>
+        <v>15.219513038655</v>
       </c>
       <c r="S33">
-        <v>0.003329446636764513</v>
+        <v>0.001047680467193644</v>
       </c>
       <c r="T33">
-        <v>0.004570750512209438</v>
+        <v>0.001643859117381213</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H34">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I34">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J34">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N34">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O34">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P34">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q34">
-        <v>5.758656511720001</v>
+        <v>1.026017854732333</v>
       </c>
       <c r="R34">
-        <v>51.82790860548</v>
+        <v>9.234160692591001</v>
       </c>
       <c r="S34">
-        <v>0.002703064582822437</v>
+        <v>0.000635660928439921</v>
       </c>
       <c r="T34">
-        <v>0.003710837017191904</v>
+        <v>0.0009973814015813221</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H35">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I35">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J35">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N35">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O35">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P35">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q35">
-        <v>1.324774633359333</v>
+        <v>0.3992937090525001</v>
       </c>
       <c r="R35">
-        <v>7.948647800156</v>
+        <v>2.395762254315</v>
       </c>
       <c r="S35">
-        <v>0.000621837990226931</v>
+        <v>0.0002473791354076845</v>
       </c>
       <c r="T35">
-        <v>0.0005691168578297819</v>
+        <v>0.0002587662045974055</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H36">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I36">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J36">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N36">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O36">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P36">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q36">
-        <v>15.09262013500578</v>
+        <v>0.3063276190273334</v>
       </c>
       <c r="R36">
-        <v>135.833581215052</v>
+        <v>2.756948571246</v>
       </c>
       <c r="S36">
-        <v>0.007084348036021657</v>
+        <v>0.0001897827584769503</v>
       </c>
       <c r="T36">
-        <v>0.00972557633354439</v>
+        <v>0.0002977779271572776</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H37">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I37">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J37">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N37">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O37">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P37">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q37">
-        <v>6.961763726826222</v>
+        <v>0.7098158927760001</v>
       </c>
       <c r="R37">
-        <v>62.65587354143599</v>
+        <v>6.388343034984</v>
       </c>
       <c r="S37">
-        <v>0.00326779291761253</v>
+        <v>0.0004397606019644881</v>
       </c>
       <c r="T37">
-        <v>0.004486110690900455</v>
+        <v>0.0006900047272435777</v>
       </c>
     </row>
   </sheetData>
